--- a/shift_manager/static/all_mem.xlsx
+++ b/shift_manager/static/all_mem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\shift_app\shift_manager\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5228020B-78D2-4983-ACC5-3FC24F961733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E46DC2-17FD-4BED-83E6-F6319CA2D06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A8CE4676-B140-4662-96CB-0CE9F08BAB83}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B535488A-1DB2-4CB6-9FE6-04E8C45A7C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,13 +156,6 @@
   </si>
   <si>
     <t>坂下 大知</t>
-    <rPh sb="0" eb="2">
-      <t>サカシタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ダイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -533,18 +526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE49B9AD-5D6F-445D-B565-9DF2E9996DBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3B6EC-9A6F-46AE-932C-64D7FF4FC66E}">
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.9140625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">

--- a/shift_manager/static/all_mem.xlsx
+++ b/shift_manager/static/all_mem.xlsx
@@ -2,25 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\shift_app\shift_manager\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E46DC2-17FD-4BED-83E6-F6319CA2D06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2B71DC-CF1A-460E-8F9A-84D234DD6DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B535488A-1DB2-4CB6-9FE6-04E8C45A7C35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -28,20 +23,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>職員番号</t>
-    <rPh sb="0" eb="2">
-      <t>ショクイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>山村 博</t>
@@ -166,23 +150,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -195,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,22 +185,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -241,44 +241,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,32 +305,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -357,24 +339,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,461 +350,488 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3B6EC-9A6F-46AE-932C-64D7FF4FC66E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>51774</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>35665</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>62993</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>88014</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>29056</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>31176</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>33473</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>33485</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>37584</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>37601</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>39805</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>42503</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>46963</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>52687</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>56712</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>97962</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>103814</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>109997</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>79269</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>88777</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>94908</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>97974</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>109272</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>112499</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>114863</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>118857</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>118869</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>122339</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>125642</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>130415</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>130439</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>130441</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>130831</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>131603</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>138041</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>138053</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>142042</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>145410</v>
       </c>
       <c r="B39" t="s">
@@ -849,6 +840,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>